--- a/biology/Botanique/Listère_à_feuilles_ovales/Listère_à_feuilles_ovales.xlsx
+++ b/biology/Botanique/Listère_à_feuilles_ovales/Listère_à_feuilles_ovales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>List%C3%A8re_%C3%A0_feuilles_ovales</t>
+          <t>Listère_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neottia ovata
 La Listère à feuilles ovales (Neottia ovata), ou grande listère, est une espèce d'Orchidacée terrestre européenne.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>List%C3%A8re_%C3%A0_feuilles_ovales</t>
+          <t>Listère_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace, à racines nombreuses, à tige dressée entièrement verte, pouvant dépasser 60 cm, portant à mi-hauteur une paire de grandes feuilles ovales opposées. L'inflorescence est un épi lâche de petites fleurs verdâtres aux sépales et pétales connivents. Le labelle est allongé et porte à la base une cupule nectarifère. Son extrémité est bifide. Il n'y a pas d'éperon.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>List%C3%A8re_%C3%A0_feuilles_ovales</t>
+          <t>Listère_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De mai à juillet.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>List%C3%A8re_%C3%A0_feuilles_ovales</t>
+          <t>Listère_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Assez indifférent : sous-bois clairs, pelouses calcaires, pelouses et broussailles, plutôt à mi-ombre.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>List%C3%A8re_%C3%A0_feuilles_ovales</t>
+          <t>Listère_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Très vaste : Eurasie et Amérique du Nord.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>List%C3%A8re_%C3%A0_feuilles_ovales</t>
+          <t>Listère_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,11 +658,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français[1].
-Protection
-En Belgique, l'espèce est protégée légalement.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français.
 </t>
         </is>
       </c>
@@ -653,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>List%C3%A8re_%C3%A0_feuilles_ovales</t>
+          <t>Listère_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,10 +688,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Statuts de protection, menaces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, l'espèce est protégée légalement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Listère_à_feuilles_ovales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/List%C3%A8re_%C3%A0_feuilles_ovales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Flore européenne :
 Neottia cordata, la listère cordée (se limite aux régions de tourbières).</t>
